--- a/NetworkProgramming/ProgrammingConcurrentServers.xlsx
+++ b/NetworkProgramming/ProgrammingConcurrentServers.xlsx
@@ -8,7 +8,8 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Part 1 - Introduction" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Part 2 - Threads" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t xml:space="preserve">concurrent</t>
   </si>
@@ -983,6 +984,123 @@
   </si>
   <si>
     <t xml:space="preserve">使理解；打通电话</t>
+  </si>
+  <si>
+    <t xml:space="preserve">strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 战略，策略</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vt. 招致，引发；蒙受</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 闲置的；懒惰的；停顿的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vi. 无所事事；虚度；空转</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vt. 虚度；使空转</t>
+  </si>
+  <si>
+    <t xml:space="preserve">even if</t>
+  </si>
+  <si>
+    <t xml:space="preserve">即使；虽然</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look up </t>
+  </si>
+  <si>
+    <t xml:space="preserve">仰望；查阅；尊敬；拜访；改善</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scalable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 可攀登的；可扩展的；可称量的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twofold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 有两部分的，双重的；两倍的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adv. 双重地，两倍地</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 领域；域名；产业；地产</t>
+  </si>
+  <si>
+    <t xml:space="preserve">motivation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 动机；积极性；推动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 框架；结构；眼镜框；[电影] 画面；帧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vt. 给 (图画或照片) 配框；设计；建造；陷害；使…适合；制订；拟订</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vi. 有成功希望</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 有木架的；有构架的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 连续的；连载的；分期偿还的；连续作案的；串行的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 电视连续剧；期刊；连载小说</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coroutine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 协同程序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alternative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 供选择的；选择性的；交替的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 二中择一；供替代的选择</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recommend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vt. 推荐，介绍；劝告；使受欢迎；托付</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vi. 推荐；建议</t>
+  </si>
+  <si>
+    <t xml:space="preserve">series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 系列，连续；[电] 串联；级数；丛书</t>
   </si>
 </sst>
 </file>
@@ -1113,19 +1231,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B107" activeCellId="0" sqref="B107"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B152" activeCellId="0" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="55.8877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1275,11 +1394,16 @@
       <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="E24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
@@ -1288,11 +1412,16 @@
       <c r="B27" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
@@ -1301,6 +1430,10 @@
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="E30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
@@ -1309,11 +1442,16 @@
       <c r="B32" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="E32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="E33" s="0"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
@@ -1322,6 +1460,10 @@
       <c r="B35" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="E35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
@@ -1330,6 +1472,10 @@
       <c r="B37" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="E37" s="0"/>
+    </row>
+    <row r="38" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
@@ -1338,6 +1484,10 @@
       <c r="B39" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="E39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
@@ -1346,6 +1496,10 @@
       <c r="B41" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E41" s="0"/>
+    </row>
+    <row r="42" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
@@ -1354,6 +1508,10 @@
       <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
@@ -1362,11 +1520,16 @@
       <c r="B45" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="E45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="E46" s="0"/>
+    </row>
+    <row r="47" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
@@ -1375,6 +1538,10 @@
       <c r="B48" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="E48" s="0"/>
+    </row>
+    <row r="49" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
@@ -1383,6 +1550,10 @@
       <c r="B50" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="E50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
@@ -1391,6 +1562,10 @@
       <c r="B52" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="E52" s="0"/>
+    </row>
+    <row r="53" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
@@ -1399,11 +1574,16 @@
       <c r="B54" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="E54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="E55" s="0"/>
+    </row>
+    <row r="56" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
@@ -1412,6 +1592,10 @@
       <c r="B57" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="E57" s="0"/>
+    </row>
+    <row r="58" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
@@ -1420,6 +1604,10 @@
       <c r="B59" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="E59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
@@ -1428,6 +1616,10 @@
       <c r="B61" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="E61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
@@ -1436,6 +1628,10 @@
       <c r="B63" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="E63" s="0"/>
+    </row>
+    <row r="64" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
@@ -1444,6 +1640,10 @@
       <c r="B65" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="E65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
@@ -1452,6 +1652,10 @@
       <c r="B67" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="E67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
@@ -1460,11 +1664,16 @@
       <c r="B69" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="E69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="E70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
@@ -1473,21 +1682,28 @@
       <c r="B72" s="4" t="s">
         <v>73</v>
       </c>
+      <c r="E72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="E73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="4" t="s">
         <v>75</v>
       </c>
+      <c r="E74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="E75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
@@ -1496,11 +1712,16 @@
       <c r="B77" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="E77" s="0"/>
     </row>
     <row r="78" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="E78" s="0"/>
+    </row>
+    <row r="79" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
@@ -1509,6 +1730,10 @@
       <c r="B80" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="E80" s="0"/>
+    </row>
+    <row r="81" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E81" s="0"/>
     </row>
     <row r="82" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
@@ -1517,11 +1742,16 @@
       <c r="B82" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="E82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="E83" s="0"/>
+    </row>
+    <row r="84" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
@@ -1530,11 +1760,16 @@
       <c r="B85" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="E85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="E86" s="0"/>
+    </row>
+    <row r="87" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
@@ -1543,16 +1778,22 @@
       <c r="B88" s="4" t="s">
         <v>89</v>
       </c>
+      <c r="E88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="E89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="4" t="s">
         <v>91</v>
       </c>
+      <c r="E90" s="0"/>
+    </row>
+    <row r="91" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
@@ -1561,16 +1802,22 @@
       <c r="B92" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="E93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="E94" s="0"/>
+    </row>
+    <row r="95" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
@@ -1579,11 +1826,16 @@
       <c r="B96" s="4" t="s">
         <v>97</v>
       </c>
+      <c r="E96" s="0"/>
     </row>
     <row r="97" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="E97" s="0"/>
+    </row>
+    <row r="98" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E98" s="0"/>
     </row>
     <row r="99" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
@@ -1592,11 +1844,16 @@
       <c r="B99" s="1" t="s">
         <v>100</v>
       </c>
+      <c r="E99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="1" t="s">
         <v>101</v>
       </c>
+      <c r="E100" s="0"/>
+    </row>
+    <row r="101" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
@@ -1605,6 +1862,10 @@
       <c r="B102" s="1" t="s">
         <v>103</v>
       </c>
+      <c r="E102" s="0"/>
+    </row>
+    <row r="103" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="0"/>
     </row>
     <row r="104" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
@@ -1613,6 +1874,10 @@
       <c r="B104" s="1" t="s">
         <v>105</v>
       </c>
+      <c r="E104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E105" s="0"/>
     </row>
     <row r="106" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
@@ -1621,6 +1886,10 @@
       <c r="B106" s="1" t="s">
         <v>107</v>
       </c>
+      <c r="E106" s="0"/>
+    </row>
+    <row r="107" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
@@ -1629,6 +1898,10 @@
       <c r="B108" s="4" t="s">
         <v>109</v>
       </c>
+      <c r="E108" s="0"/>
+    </row>
+    <row r="109" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
@@ -1637,11 +1910,16 @@
       <c r="B110" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="E110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="E111" s="0"/>
+    </row>
+    <row r="112" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E112" s="0"/>
     </row>
     <row r="113" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
@@ -1650,16 +1928,22 @@
       <c r="B113" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="E113" s="0"/>
     </row>
     <row r="114" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="4" t="s">
         <v>115</v>
       </c>
+      <c r="E114" s="0"/>
     </row>
     <row r="115" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="E115" s="0"/>
+    </row>
+    <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E116" s="0"/>
     </row>
     <row r="117" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
@@ -1668,6 +1952,10 @@
       <c r="B117" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="E117" s="0"/>
+    </row>
+    <row r="118" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E118" s="0"/>
     </row>
     <row r="119" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
@@ -1676,6 +1964,10 @@
       <c r="B119" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="E119" s="0"/>
+    </row>
+    <row r="120" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
@@ -1684,6 +1976,10 @@
       <c r="B121" s="4" t="s">
         <v>122</v>
       </c>
+      <c r="E121" s="0"/>
+    </row>
+    <row r="122" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
@@ -1692,6 +1988,10 @@
       <c r="B123" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="E123" s="0"/>
+    </row>
+    <row r="124" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
@@ -1699,6 +1999,197 @@
       </c>
       <c r="B125" s="4" t="s">
         <v>126</v>
+      </c>
+      <c r="E125" s="0"/>
+    </row>
+    <row r="126" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E126" s="0"/>
+    </row>
+    <row r="127" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E127" s="0"/>
+    </row>
+    <row r="128" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E129" s="0"/>
+    </row>
+    <row r="130" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E130" s="0"/>
+    </row>
+    <row r="131" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E131" s="0"/>
+    </row>
+    <row r="132" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E132" s="0"/>
+    </row>
+    <row r="133" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E133" s="0"/>
+    </row>
+    <row r="134" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E134" s="0"/>
+    </row>
+    <row r="135" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E135" s="0"/>
+    </row>
+    <row r="136" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E136" s="0"/>
+    </row>
+    <row r="137" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E137" s="0"/>
+    </row>
+    <row r="138" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E138" s="0"/>
+    </row>
+    <row r="139" s="1" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1710,4 +2201,30 @@
     <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/NetworkProgramming/ProgrammingConcurrentServers.xlsx
+++ b/NetworkProgramming/ProgrammingConcurrentServers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t xml:space="preserve">concurrent</t>
   </si>
@@ -1101,6 +1101,51 @@
   </si>
   <si>
     <t xml:space="preserve">n. 系列，连续；[电] 串联；级数；丛书</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 实用；效用；公共设施；功用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 实用的；通用的；有多种用途的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">as well as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">也；和…一样；不但…而且</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bare-bones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 最基本的；降到最低限度的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. （为达到某一目标的）过程；（自然变化的）过程；工艺流程；诉讼程序；传票；突起；进展；（发型）直发式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v. 加工；审核；处理（数据）；列队行进；冲印（照片）；把（头发）弄成直发</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adj. 经过特殊加工的；照相板的；染印法的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tend to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">趋向；注意；易于；有…的倾向；常常 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">boredom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n. 厌倦；令人厌烦的事物</t>
   </si>
 </sst>
 </file>
@@ -1231,10 +1276,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B152" activeCellId="0" sqref="B152"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A169" activeCellId="0" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
@@ -2190,6 +2235,19 @@
       </c>
       <c r="B164" s="4" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2208,17 +2266,70 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="17.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="51.4030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
